--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Charlie NextCloud\Spyro\Documents\Projects\Cardmarket-Price-Updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE72A7-6947-4F05-B1AC-8232EB68E3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE693DB3-D677-43D2-97C9-5165C62ED8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,11 +32,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Release Date</t>
   </si>
   <si>
+    <t>Game</t>
+  </si>
+  <si>
     <t>Set Name</t>
   </si>
   <si>
@@ -64,13 +67,16 @@
     <t>Collection Value (£)</t>
   </si>
   <si>
+    <t>Yu-Gi-Oh!</t>
+  </si>
+  <si>
     <t>Nike Collaboration Cards (special)</t>
   </si>
   <si>
     <t>NKC1-EN002</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>2025-11-29</t>
   </si>
   <si>
     <t>Prismatic Secret Rare</t>
@@ -94,6 +100,9 @@
     <t>Amount Spent (£)</t>
   </si>
   <si>
+    <t>MTG</t>
+  </si>
+  <si>
     <t>Alpha</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
   </si>
   <si>
     <t>✔</t>
+  </si>
+  <si>
+    <t>Pokémon</t>
   </si>
   <si>
     <t>Base Set</t>
@@ -336,7 +348,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -396,6 +408,126 @@
       <font>
         <color rgb="FF00B050"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff00b050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ffff0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ffc00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ffff0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.3999450666829432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff92d050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ff00b050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff00b050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ffff0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ffc00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ffff0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.3999450666829432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff92d050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ff00b050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff00b050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ffff0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ffc00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ffff0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.3999450666829432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff92d050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ff00b050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -752,29 +884,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="E2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="31.5703125" customWidth="1" style="6"/>
-    <col min="3" max="3" bestFit="1" width="15" customWidth="1" style="8"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" style="7"/>
-    <col min="5" max="5" bestFit="1" width="13.7109375" customWidth="1" style="5"/>
-    <col min="6" max="6" bestFit="1" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="32.7109375" customWidth="1" style="6"/>
-    <col min="8" max="8" bestFit="1" width="10.28515625" customWidth="1" style="1"/>
-    <col min="9" max="9" bestFit="1" width="13.5703125" customWidth="1" style="7"/>
-    <col min="10" max="10" bestFit="1" width="32.5703125" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="31.5703125" customWidth="1" style="6"/>
+    <col min="4" max="4" bestFit="1" width="15" customWidth="1" style="8"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" style="7"/>
+    <col min="6" max="6" bestFit="1" width="13.7109375" customWidth="1" style="5"/>
+    <col min="7" max="7" bestFit="1" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="32.7109375" customWidth="1" style="6"/>
+    <col min="9" max="9" bestFit="1" width="10.28515625" customWidth="1" style="1"/>
+    <col min="10" max="10" bestFit="1" width="13.5703125" customWidth="1" style="7"/>
+    <col min="11" max="11" bestFit="1" width="32.5703125" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -804,970 +937,931 @@
       <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="13">
+        <v>45912</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="20">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="20">
         <v>552.5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
         <v>845882</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="11">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="11">
         <v>200</v>
       </c>
-      <c r="J2" s="11">
-        <f>SUMIFS(D:D, H:H, "&lt;&gt;✖", H:H, "&lt;&gt;")</f>
-        <v>28934.37</v>
+      <c r="K2" s="11">
+        <f>SUMIFS(E:E, I:I, "&lt;&gt;✖", I:I, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13">
         <v>37323</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="20">
-        <v>86.96</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="20">
+        <v>74.49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
         <v>577919</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="13">
-        <v>37710</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="20">
+        <v>34186</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="20">
         <v>26328.87</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
         <v>5465</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="11">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11">
         <v>5000</v>
       </c>
-      <c r="J4" s="11">
-        <f>SUM(I:I)</f>
+      <c r="K4" s="11">
+        <f>SUM(J:J)</f>
         <v>6200</v>
       </c>
-      <c r="K4" s="14"/>
       <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="13">
-        <v>37956</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="20">
+        <v>36169</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="20">
         <v>2053</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
         <v>660224</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="11">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="11">
         <v>1000</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="13">
-        <v>38167</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12">
-        <f>SUM(D:D)-J2</f>
+      <c r="H6" s="1"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12">
+        <f>SUM(E:E)-K2</f>
         <v>0</v>
       </c>
-      <c r="K6" s="14"/>
       <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="13">
-        <v>38272</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="13">
-        <v>38353</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="13">
-        <v>38353</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="14"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="13">
-        <v>38353</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="14"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="13">
-        <v>38353</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="14"/>
+      <c r="H11" s="1"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="13">
-        <v>39637</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="14"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="13">
-        <v>39790</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="14"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="13">
-        <v>40452</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="14"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="13">
-        <v>40942</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="14"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="13">
-        <v>41558</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="14"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="13">
-        <v>42174</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="14"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="13">
-        <v>42474</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="14"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19">
-      <c r="A19" s="13">
-        <v>42649</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="14"/>
+      <c r="H19" s="1"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20">
-      <c r="A20" s="13">
-        <v>42985</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="14"/>
+      <c r="H20" s="1"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21">
-      <c r="A21" s="13">
-        <v>43489</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="14"/>
+      <c r="H21" s="1"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="13">
-        <v>43572</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="14"/>
+      <c r="H22" s="1"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23">
-      <c r="A23" s="13">
-        <v>44014</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="14"/>
+      <c r="H23" s="1"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="13">
-        <v>44014</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="14"/>
+      <c r="H24" s="1"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="13">
-        <v>44014</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="14"/>
+      <c r="H25" s="1"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26">
-      <c r="A26" s="13">
-        <v>44042</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="14"/>
+      <c r="H26" s="1"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
     </row>
     <row r="27">
-      <c r="A27" s="13">
-        <v>44147</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="14"/>
+      <c r="H27" s="1"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28">
-      <c r="A28" s="13">
-        <v>44161</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="14"/>
+      <c r="H28" s="1"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29">
-      <c r="A29" s="13">
-        <v>44161</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="14"/>
+      <c r="H29" s="1"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30">
-      <c r="A30" s="13">
-        <v>44518</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="14"/>
+      <c r="H30" s="1"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31">
-      <c r="A31" s="13">
-        <v>44541</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="14"/>
+      <c r="H31" s="1"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32">
-      <c r="A32" s="13">
-        <v>44630</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="14"/>
+      <c r="H32" s="1"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="13">
-        <v>44686</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="14"/>
+      <c r="H33" s="1"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="13">
-        <v>44819</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="14"/>
+      <c r="H34" s="1"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35">
-      <c r="A35" s="13">
-        <v>44868</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="14"/>
+      <c r="H35" s="1"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36">
-      <c r="A36" s="13">
-        <v>44868</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="14"/>
+      <c r="H36" s="1"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="13">
-        <v>44896</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="14"/>
+      <c r="H37" s="1"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38">
-      <c r="A38" s="13">
-        <v>45015</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="1"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="14"/>
+      <c r="H38" s="1"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
     </row>
     <row r="39">
-      <c r="A39" s="13">
-        <v>45036</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="1"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="14"/>
+      <c r="H39" s="1"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
     </row>
     <row r="40">
-      <c r="A40" s="13">
-        <v>45036</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="1"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="14"/>
+      <c r="H40" s="1"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
     </row>
     <row r="41">
-      <c r="A41" s="13">
-        <v>45036</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="1"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="14"/>
+      <c r="H41" s="1"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
     </row>
     <row r="42">
-      <c r="A42" s="13">
-        <v>45059</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="1"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="14"/>
+      <c r="H42" s="1"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
     </row>
     <row r="43">
-      <c r="A43" s="13">
-        <v>45161</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="1"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="14"/>
+      <c r="H43" s="1"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
     </row>
     <row r="44">
-      <c r="A44" s="13">
-        <v>45161</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="1"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="14"/>
+      <c r="H44" s="1"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
     </row>
     <row r="45">
-      <c r="A45" s="13">
-        <v>45176</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="1"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="14"/>
+      <c r="H45" s="1"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
     </row>
     <row r="46">
-      <c r="A46" s="13">
-        <v>45297</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="1"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="14"/>
+      <c r="H46" s="1"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
     </row>
     <row r="47">
-      <c r="A47" s="13">
-        <v>45512</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="1"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="14"/>
+      <c r="H47" s="1"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
     </row>
     <row r="48">
-      <c r="A48" s="13">
-        <v>45554</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="1"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="14"/>
+      <c r="H48" s="1"/>
+      <c r="J48" s="11"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
     </row>
     <row r="49">
-      <c r="A49" s="13">
-        <v>45603</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="1"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="14"/>
+      <c r="H49" s="1"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
     </row>
     <row r="50">
-      <c r="A50" s="13">
-        <v>45603</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="1"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="14"/>
+      <c r="H50" s="1"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
     </row>
     <row r="51">
-      <c r="A51" s="13">
-        <v>45639</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="1"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="14"/>
+      <c r="H51" s="1"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
     </row>
     <row r="52">
-      <c r="A52" s="13">
-        <v>45668</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="10"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="14"/>
+      <c r="H52" s="1"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
     </row>
     <row r="53">
-      <c r="A53" s="13">
-        <v>45757</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="1"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="14"/>
+      <c r="H53" s="1"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
     </row>
     <row r="54">
-      <c r="A54" s="13">
-        <v>45757</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="1"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="14"/>
+      <c r="H54" s="1"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
     </row>
     <row r="55">
-      <c r="A55" s="13">
-        <v>45757</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="1"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="14"/>
+      <c r="H55" s="1"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
     </row>
     <row r="56">
-      <c r="A56" s="13">
-        <v>45757</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="1"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="14"/>
+      <c r="H56" s="1"/>
+      <c r="J56" s="11"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
     </row>
     <row r="57">
-      <c r="A57" s="13">
-        <v>45757</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="1"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="14"/>
+      <c r="H57" s="1"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
     </row>
     <row r="58">
-      <c r="A58" s="13">
-        <v>45757</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="1"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="14"/>
+      <c r="H58" s="1"/>
+      <c r="J58" s="11"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
     </row>
     <row r="59">
-      <c r="A59" s="13">
-        <v>45912</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="1"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="14"/>
+      <c r="H59" s="1"/>
+      <c r="J59" s="11"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D59">
-    <cfRule type="aboveAverage" dxfId="7" priority="1" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="8" priority="2"/>
+  <conditionalFormatting sqref="E2:E59">
+    <cfRule type="aboveAverage" dxfId="22" priority="1" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="23" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="✖">
-      <formula>NOT(ISERROR(SEARCH("✖",H2)))</formula>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="✖">
+      <formula>NOT(ISERROR(SEARCH("✖",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Unlimited">
-      <formula>NOT(ISERROR(SEARCH("Unlimited",H2)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="Unlimited">
+      <formula>NOT(ISERROR(SEARCH("Unlimited",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="LIMITED">
-      <formula>NOT(ISERROR(SEARCH("LIMITED",H2)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="LIMITED">
+      <formula>NOT(ISERROR(SEARCH("LIMITED",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="✔">
-      <formula>NOT(ISERROR(SEARCH("✔",H2)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="✔">
+      <formula>NOT(ISERROR(SEARCH("✔",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="1st Edition">
-      <formula>NOT(ISERROR(SEARCH("1st Edition",H2)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="1st Edition">
+      <formula>NOT(ISERROR(SEARCH("1st Edition",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1775,12 +1869,18 @@
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB3A381A-D322-41F2-B8C0-D79AC25BC575}">
           <x14:formula1>
             <xm:f>Formatting!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B8471D2-DA06-4830-B900-9A54FB018ED6}">
+          <x14:formula1>
+            <xm:f>Formatting!$B$1:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1790,11 +1890,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1804,45 +1902,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
